--- a/src/main/webapp/template/催记案件数据表.xlsx
+++ b/src/main/webapp/template/催记案件数据表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>催记案件数据表</t>
   </si>
@@ -56,6 +56,9 @@
     <t>最近更催时间</t>
   </si>
   <si>
+    <t>催记状态</t>
+  </si>
+  <si>
     <t>案件状态</t>
   </si>
   <si>
@@ -95,7 +98,10 @@
     <t>t.createDate</t>
   </si>
   <si>
-    <t>t.status}}</t>
+    <t>t.remindStatus</t>
+  </si>
+  <si>
+    <t>t.caseStatus}}</t>
   </si>
 </sst>
 </file>
@@ -103,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,7 +147,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,109 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,61 +298,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,121 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -526,6 +523,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -536,32 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +571,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,16 +584,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,134 +622,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,20 +1125,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="13" width="12.6333333333333" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88333333333333" style="2"/>
+    <col min="2" max="14" width="12.6333333333333" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" ht="22.5" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1154,9 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:13">
+    <row r="2" ht="27" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1189,49 +1196,55 @@
       <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1245,6 +1258,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
@@ -1256,7 +1270,7 @@
     <row r="15" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
